--- a/templates/report_template.xlsx
+++ b/templates/report_template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Order No.</t>
   </si>
@@ -68,18 +68,12 @@
     <t>Order No. (Full)</t>
   </si>
   <si>
-    <t>${table:rawData.create_time}</t>
-  </si>
-  <si>
     <t>${table:rawData.cInfo.name}</t>
   </si>
   <si>
     <t>${table:rawData.cInfo.email}</t>
   </si>
   <si>
-    <t>${table:rawData.cInfo.delivery_method}</t>
-  </si>
-  <si>
     <t>${table:rawData.cInfo.address}</t>
   </si>
   <si>
@@ -99,6 +93,27 @@
   </si>
   <si>
     <t>${table:rawData.newPrice}</t>
+  </si>
+  <si>
+    <t>Tel2</t>
+  </si>
+  <si>
+    <t>${table:rawData.cInfo.phone2}</t>
+  </si>
+  <si>
+    <t>Delivery Date</t>
+  </si>
+  <si>
+    <t>${table:rawData.cInfo.delivery_date}</t>
+  </si>
+  <si>
+    <t>${table:rawData.id2}</t>
+  </si>
+  <si>
+    <t>${table:rawData.create_time2}</t>
+  </si>
+  <si>
+    <t>${table:rawData.delivery_method}</t>
   </si>
 </sst>
 </file>
@@ -458,31 +473,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="35.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="22.1640625" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="28.33203125" customWidth="1"/>
-    <col min="8" max="8" width="29.1640625" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" customWidth="1"/>
-    <col min="13" max="13" width="30.5" customWidth="1"/>
+    <col min="8" max="9" width="29.1640625" customWidth="1"/>
+    <col min="10" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" customWidth="1"/>
+    <col min="14" max="14" width="19.6640625" customWidth="1"/>
+    <col min="15" max="15" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -508,58 +523,72 @@
         <v>5</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="K2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="M2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/templates/report_template.xlsx
+++ b/templates/report_template.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
-    <t>Order No.</t>
-  </si>
-  <si>
     <t>Order Date</t>
   </si>
   <si>
@@ -62,12 +59,6 @@
     <t>Remark (Internal)</t>
   </si>
   <si>
-    <t>${table:rawData.id}</t>
-  </si>
-  <si>
-    <t>Order No. (Full)</t>
-  </si>
-  <si>
     <t>${table:rawData.cInfo.name}</t>
   </si>
   <si>
@@ -114,6 +105,15 @@
   </si>
   <si>
     <t>${table:rawData.delivery_method}</t>
+  </si>
+  <si>
+    <t>Invoice No.</t>
+  </si>
+  <si>
+    <t>Order No. (Last 6)</t>
+  </si>
+  <si>
+    <t>${table:rawData.invoice_no}</t>
   </si>
 </sst>
 </file>
@@ -477,13 +477,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.5" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
     <col min="3" max="3" width="22.1640625" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
@@ -499,96 +499,96 @@
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="I2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="K2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="M2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/templates/report_template.xlsx
+++ b/templates/report_template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Order Date</t>
   </si>
@@ -114,6 +114,246 @@
   </si>
   <si>
     <t>${table:rawData.invoice_no}</t>
+  </si>
+  <si>
+    <t>Item 1</t>
+  </si>
+  <si>
+    <t>Item 1 Stand</t>
+  </si>
+  <si>
+    <t>Item 1 qty</t>
+  </si>
+  <si>
+    <t>Item 2</t>
+  </si>
+  <si>
+    <t>Item 2 Stand</t>
+  </si>
+  <si>
+    <t>Item 2 qty</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[0].stand}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[0].quantity}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[0].product}</t>
+  </si>
+  <si>
+    <t>Item 1 Size</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[0].size}</t>
+  </si>
+  <si>
+    <t>Item 2 Size</t>
+  </si>
+  <si>
+    <t>Item 3</t>
+  </si>
+  <si>
+    <t>Item 3 Size</t>
+  </si>
+  <si>
+    <t>Item 3 Stand</t>
+  </si>
+  <si>
+    <t>Item 3 qty</t>
+  </si>
+  <si>
+    <t>Item 4</t>
+  </si>
+  <si>
+    <t>Item 4 Size</t>
+  </si>
+  <si>
+    <t>Item 4 Stand</t>
+  </si>
+  <si>
+    <t>Item 4 qty</t>
+  </si>
+  <si>
+    <t>Item 5</t>
+  </si>
+  <si>
+    <t>Item 5 Size</t>
+  </si>
+  <si>
+    <t>Item 5 Stand</t>
+  </si>
+  <si>
+    <t>Item 5 qty</t>
+  </si>
+  <si>
+    <t>Item 6</t>
+  </si>
+  <si>
+    <t>Item 6 Size</t>
+  </si>
+  <si>
+    <t>Item 6 Stand</t>
+  </si>
+  <si>
+    <t>Item 6 qty</t>
+  </si>
+  <si>
+    <t>Item 7</t>
+  </si>
+  <si>
+    <t>Item 7 Size</t>
+  </si>
+  <si>
+    <t>Item 7 Stand</t>
+  </si>
+  <si>
+    <t>Item 7 qty</t>
+  </si>
+  <si>
+    <t>Item 8 Stand</t>
+  </si>
+  <si>
+    <t>Item 8 qty</t>
+  </si>
+  <si>
+    <t>Item 8</t>
+  </si>
+  <si>
+    <t>Item 8 Size</t>
+  </si>
+  <si>
+    <t>Item 9</t>
+  </si>
+  <si>
+    <t>Item 9 Size</t>
+  </si>
+  <si>
+    <t>Item 9 Stand</t>
+  </si>
+  <si>
+    <t>Item 9 qty</t>
+  </si>
+  <si>
+    <t>Item 10</t>
+  </si>
+  <si>
+    <t>Item 10 Size</t>
+  </si>
+  <si>
+    <t>Item 10 Stand</t>
+  </si>
+  <si>
+    <t>Item 10 qty</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[1].product}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[1].size}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[1].stand}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[1].quantity}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[2].product}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[2].size}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[2].stand}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[2].quantity}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[3].product}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[3].size}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[3].stand}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[3].quantity}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[4].product}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[4].size}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[4].stand}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[4].quantity}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[5].product}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[5].size}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[5].stand}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[5].quantity}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[6].product}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[6].size}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[6].stand}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[6].quantity}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[7].product}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[7].size}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[7].stand}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[7].quantity}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[8].product}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[8].size}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[8].stand}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[8].quantity}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[9].product}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[9].size}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[9].stand}</t>
+  </si>
+  <si>
+    <t>${table:rawData.item[9].quantity}</t>
   </si>
 </sst>
 </file>
@@ -123,7 +363,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;HK$&quot;* #,##0.00_);_(&quot;HK$&quot;* \(#,##0.00\);_(&quot;HK$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -158,6 +398,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -186,7 +434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -195,6 +443,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -473,11 +722,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:BC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="BD2" sqref="BD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -494,10 +743,13 @@
     <col min="12" max="12" width="17.6640625" customWidth="1"/>
     <col min="13" max="13" width="19.33203125" customWidth="1"/>
     <col min="14" max="14" width="19.6640625" customWidth="1"/>
-    <col min="15" max="15" width="30.5" customWidth="1"/>
+    <col min="15" max="16" width="30.5" customWidth="1"/>
+    <col min="17" max="17" width="24.33203125" customWidth="1"/>
+    <col min="18" max="18" width="20" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
@@ -543,8 +795,128 @@
       <c r="O1" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="P1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BB1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC1" s="6" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -589,6 +961,126 @@
       </c>
       <c r="O2" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/templates/report_template.xlsx
+++ b/templates/report_template.xlsx
@@ -724,9 +724,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BD2" sqref="BD2"/>
+      <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/templates/report_template.xlsx
+++ b/templates/report_template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Order Date</t>
   </si>
@@ -354,6 +354,12 @@
   </si>
   <si>
     <t>${table:rawData.item[9].quantity}</t>
+  </si>
+  <si>
+    <t>Floor</t>
+  </si>
+  <si>
+    <t>${table:rawData.cInfo.floor}</t>
   </si>
 </sst>
 </file>
@@ -722,11 +728,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC2"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -738,18 +744,20 @@
     <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="28.33203125" customWidth="1"/>
-    <col min="8" max="9" width="29.1640625" customWidth="1"/>
-    <col min="10" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" customWidth="1"/>
-    <col min="14" max="14" width="19.6640625" customWidth="1"/>
-    <col min="15" max="16" width="30.5" customWidth="1"/>
-    <col min="17" max="17" width="24.33203125" customWidth="1"/>
-    <col min="18" max="18" width="20" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="29.1640625" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" customWidth="1"/>
+    <col min="10" max="10" width="29.1640625" customWidth="1"/>
+    <col min="11" max="12" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" customWidth="1"/>
+    <col min="16" max="17" width="30.5" customWidth="1"/>
+    <col min="18" max="18" width="24.33203125" customWidth="1"/>
+    <col min="19" max="19" width="20" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
@@ -775,148 +783,151 @@
         <v>4</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AP1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AS1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AT1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AU1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AV1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AW1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AX1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AY1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BA1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BB1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="BB1" s="6" t="s">
+      <c r="BC1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BD1" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:55" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -942,144 +953,147 @@
         <v>14</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AL2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AP2" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AR2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AS2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AT2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AT2" s="3" t="s">
+      <c r="AU2" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="AU2" s="3" t="s">
+      <c r="AV2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AV2" s="3" t="s">
+      <c r="AW2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AW2" s="3" t="s">
+      <c r="AX2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AX2" s="3" t="s">
+      <c r="AY2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AY2" s="3" t="s">
+      <c r="AZ2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AZ2" s="3" t="s">
+      <c r="BA2" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="BA2" s="3" t="s">
+      <c r="BB2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="BB2" s="3" t="s">
+      <c r="BC2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="BC2" s="3" t="s">
+      <c r="BD2" s="3" t="s">
         <v>109</v>
       </c>
     </row>

--- a/templates/report_template.xlsx
+++ b/templates/report_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>Order Date</t>
   </si>
@@ -360,6 +360,12 @@
   </si>
   <si>
     <t>${table:rawData.cInfo.floor}</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>${table:rawData.status2}</t>
   </si>
 </sst>
 </file>
@@ -728,36 +734,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.33203125" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" customWidth="1"/>
-    <col min="4" max="4" width="25.5" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="28.33203125" customWidth="1"/>
-    <col min="8" max="8" width="29.1640625" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" customWidth="1"/>
-    <col min="10" max="10" width="29.1640625" customWidth="1"/>
-    <col min="11" max="12" width="11.5" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" customWidth="1"/>
-    <col min="15" max="15" width="19.6640625" customWidth="1"/>
-    <col min="16" max="17" width="30.5" customWidth="1"/>
-    <col min="18" max="18" width="24.33203125" customWidth="1"/>
-    <col min="19" max="19" width="20" customWidth="1"/>
-    <col min="20" max="20" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="5" max="5" width="25.5" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" customWidth="1"/>
+    <col min="9" max="9" width="29.1640625" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" customWidth="1"/>
+    <col min="11" max="11" width="29.1640625" customWidth="1"/>
+    <col min="12" max="13" width="11.5" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" customWidth="1"/>
+    <col min="16" max="16" width="19.6640625" customWidth="1"/>
+    <col min="17" max="18" width="30.5" customWidth="1"/>
+    <col min="19" max="19" width="24.33203125" customWidth="1"/>
+    <col min="20" max="20" width="20" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
@@ -765,169 +772,172 @@
         <v>27</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AP1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AS1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AT1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AU1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AV1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AW1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AX1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AY1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BA1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BB1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="BB1" s="6" t="s">
+      <c r="BC1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BD1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="BD1" s="6" t="s">
+      <c r="BE1" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:56" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -935,165 +945,168 @@
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AL2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AP2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AR2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AS2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AT2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AT2" s="3" t="s">
+      <c r="AU2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AU2" s="3" t="s">
+      <c r="AV2" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="AV2" s="3" t="s">
+      <c r="AW2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AW2" s="3" t="s">
+      <c r="AX2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AX2" s="3" t="s">
+      <c r="AY2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AY2" s="3" t="s">
+      <c r="AZ2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AZ2" s="3" t="s">
+      <c r="BA2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="BA2" s="3" t="s">
+      <c r="BB2" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="BB2" s="3" t="s">
+      <c r="BC2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="BC2" s="3" t="s">
+      <c r="BD2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="BD2" s="3" t="s">
+      <c r="BE2" s="3" t="s">
         <v>109</v>
       </c>
     </row>
